--- a/输出.xlsx
+++ b/输出.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CODE\pyts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CODE\py_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +24,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+  <si>
+    <t>驱逐舰-单管</t>
+  </si>
+  <si>
+    <t>image/img_plane_enemy_hlk.plist</t>
+  </si>
+  <si>
+    <t>img_monster_hlk_02.png</t>
+  </si>
+  <si>
+    <t>小岛1-1岗哨</t>
+  </si>
+  <si>
+    <t>img_monster_hlk_05.png</t>
+  </si>
+  <si>
+    <t>小岛2-1岗哨</t>
+  </si>
+  <si>
+    <t>img_monster_hlk_06.png</t>
+  </si>
+  <si>
+    <t>武装直升机1档</t>
+  </si>
+  <si>
+    <t>image/img_plane_enemy.plist</t>
+  </si>
+  <si>
+    <t>img_monster_mid_10.png</t>
+  </si>
+  <si>
+    <t>侦查直升机1档</t>
+  </si>
+  <si>
+    <t>img_monster_mid_06.png</t>
+  </si>
+  <si>
+    <t>十字星1档</t>
+  </si>
+  <si>
+    <t>img_monster_mid_05.png</t>
+  </si>
+  <si>
+    <t>转向战机1档</t>
+  </si>
+  <si>
+    <t>image/img_plane_enemy2.plist</t>
+  </si>
+  <si>
+    <t>img_monster_sma_16.png</t>
+  </si>
+  <si>
+    <t>攻击自爆机3档</t>
+  </si>
+  <si>
+    <t>img_monster_mid_11.png</t>
+  </si>
+  <si>
+    <t>定点防御靶机1档</t>
+  </si>
+  <si>
+    <t>img_monster_sma_07.png</t>
+  </si>
   <si>
     <t>侦察机1档</t>
   </si>
   <si>
-    <t>image/img_plane_enemy.plist</t>
-  </si>
-  <si>
     <t>img_monster_sma_01.png</t>
+  </si>
+  <si>
+    <t>编队头机1档</t>
+  </si>
+  <si>
+    <t>img_monster_sma_02.png</t>
+  </si>
+  <si>
+    <t>驱逐舰-单管-斜上入场左A</t>
+  </si>
+  <si>
+    <t>驱逐舰-单管-斜上入场右A</t>
+  </si>
+  <si>
+    <t>重型强击机1档</t>
+  </si>
+  <si>
+    <t>image/img_plane_enemy4.plist</t>
+  </si>
+  <si>
+    <t>img_monster_77_05.png</t>
+  </si>
+  <si>
+    <t>科技机1</t>
+  </si>
+  <si>
+    <t>img_monster_zi_01.png</t>
+  </si>
+  <si>
+    <t>科技机3随</t>
+  </si>
+  <si>
+    <t>img_monster_sma_22.png</t>
+  </si>
+  <si>
+    <t>深V撤退随蜘蛛机</t>
+  </si>
+  <si>
+    <t>img_monster_spider_001.png</t>
+  </si>
+  <si>
+    <t>内射折跃机</t>
+  </si>
+  <si>
+    <t>img_monster_sma_06.png</t>
+  </si>
+  <si>
+    <t>外射折跃机</t>
+  </si>
+  <si>
+    <t>护卫舰-单管-下方入场左1</t>
+  </si>
+  <si>
+    <t>img_monster_hlk_01.png</t>
+  </si>
+  <si>
+    <t>护卫舰-单管-侧面入场1左</t>
+  </si>
+  <si>
+    <t>护卫舰-单管-侧面入场1右</t>
+  </si>
+  <si>
+    <t>驱逐舰-单管-侧面入场1左</t>
+  </si>
+  <si>
+    <t>驱逐舰-单管-侧面入场1右</t>
+  </si>
+  <si>
+    <t>拦截机左A1档</t>
+  </si>
+  <si>
+    <t>image/img_plane_enemy3.plist</t>
+  </si>
+  <si>
+    <t>img_monster_57.png</t>
+  </si>
+  <si>
+    <t>拦截机右A1档</t>
+  </si>
+  <si>
+    <t>轮流射击左1方阵机</t>
+  </si>
+  <si>
+    <t>img_monster_sma_17.png</t>
+  </si>
+  <si>
+    <t>无人机左1档</t>
+  </si>
+  <si>
+    <t>img_monster_maz_01.png</t>
+  </si>
+  <si>
+    <t>空雷1档</t>
+  </si>
+  <si>
+    <t>img_monster_sma_05.png</t>
+  </si>
+  <si>
+    <t>工厂底板DA-X30-带柱</t>
+  </si>
+  <si>
+    <t>image/img_plane_enemy_hlk_mu20.plist</t>
+  </si>
+  <si>
+    <t>img_monster_hlk_mu20_09.png</t>
+  </si>
+  <si>
+    <t>深V撤退左蜘蛛机</t>
+  </si>
+  <si>
+    <t>护卫舰-单管</t>
+  </si>
+  <si>
+    <t>驱逐舰-单管-斜上入场左B</t>
+  </si>
+  <si>
+    <t>驱逐舰-单管-斜上入场右B</t>
+  </si>
+  <si>
+    <t>护卫舰-单管-下方入场右1</t>
+  </si>
+  <si>
+    <t>拦截机左B1档</t>
+  </si>
+  <si>
+    <t>拦截机右B1档</t>
+  </si>
+  <si>
+    <t>轮流射击左2方阵机</t>
+  </si>
+  <si>
+    <t>战斗机1档</t>
+  </si>
+  <si>
+    <t>img_monster_sma_04.png</t>
+  </si>
+  <si>
+    <t>无人机右1档</t>
+  </si>
+  <si>
+    <t>审判者1档</t>
+  </si>
+  <si>
+    <t>img_monster_1_21_1.png</t>
+  </si>
+  <si>
+    <t>驱逐舰-单管-斜上入场左C</t>
+  </si>
+  <si>
+    <t>驱逐舰-单管-斜上入场右C</t>
+  </si>
+  <si>
+    <t>护卫舰-单管-下方入场左2</t>
+  </si>
+  <si>
+    <t>拦截机左C1档</t>
+  </si>
+  <si>
+    <t>拦截机右C1档</t>
+  </si>
+  <si>
+    <t>轮流射击左3方阵机</t>
+  </si>
+  <si>
+    <t>护卫舰-单管-下方入场右2</t>
+  </si>
+  <si>
+    <t>轮流射击左4方阵机</t>
+  </si>
+  <si>
+    <t>护卫舰-单管-下方入场中央</t>
+  </si>
+  <si>
+    <t>轮流射击右1方阵机</t>
+  </si>
+  <si>
+    <t>轮流射击右2方阵机</t>
+  </si>
+  <si>
+    <t>障碍柱</t>
+  </si>
+  <si>
+    <t>img_monster_hlk_mu20_01.png</t>
+  </si>
+  <si>
+    <t>轮流射击右3方阵机</t>
+  </si>
+  <si>
+    <t>轮流射击右4方阵机</t>
+  </si>
+  <si>
+    <t>轮流射击右5方阵机</t>
   </si>
 </sst>
 </file>
@@ -362,15 +614,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW1"/>
+  <dimension ref="A1:EP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>30240102</v>
+        <v>48029027</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -393,14 +645,29 @@
       <c r="I1">
         <v>2</v>
       </c>
-      <c r="Z1">
-        <v>0</v>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>65538</v>
+      </c>
+      <c r="M1">
+        <v>-85</v>
+      </c>
+      <c r="R1">
+        <v>14</v>
+      </c>
+      <c r="S1">
+        <v>100</v>
+      </c>
+      <c r="X1">
+        <v>4</v>
       </c>
       <c r="AA1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="AC1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD1">
         <v>1</v>
@@ -418,16 +685,5601 @@
         <v>900</v>
       </c>
       <c r="AO1">
-        <v>100</v>
+        <v>10000</v>
+      </c>
+      <c r="BB1">
+        <v>-300</v>
       </c>
       <c r="BC1">
-        <v>21860101</v>
+        <v>1</v>
+      </c>
+      <c r="BE1">
+        <v>300</v>
+      </c>
+      <c r="BF1">
+        <v>1</v>
+      </c>
+      <c r="CE1">
+        <v>1</v>
+      </c>
+      <c r="CI1">
+        <v>91045069</v>
       </c>
       <c r="CV1">
-        <v>91000201</v>
+        <v>91045070</v>
       </c>
       <c r="CW1">
         <v>90003101</v>
+      </c>
+      <c r="EC1">
+        <v>1</v>
+      </c>
+      <c r="ED1">
+        <v>41062034</v>
+      </c>
+      <c r="EE1">
+        <v>41000812</v>
+      </c>
+      <c r="EF1">
+        <v>41000813</v>
+      </c>
+      <c r="EG1">
+        <v>41000814</v>
+      </c>
+      <c r="EH1">
+        <v>41000815</v>
+      </c>
+      <c r="EI1">
+        <v>41000817</v>
+      </c>
+      <c r="EJ1">
+        <v>42021001</v>
+      </c>
+      <c r="EK1">
+        <v>42021002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>48029063</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>-95</v>
+      </c>
+      <c r="X2">
+        <v>13542526</v>
+      </c>
+      <c r="AA2">
+        <v>10000</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>2000</v>
+      </c>
+      <c r="AF2">
+        <v>2000</v>
+      </c>
+      <c r="AI2">
+        <v>1000</v>
+      </c>
+      <c r="AJ2">
+        <v>1000</v>
+      </c>
+      <c r="AO2">
+        <v>10000</v>
+      </c>
+      <c r="BA2">
+        <v>-80</v>
+      </c>
+      <c r="BB2">
+        <v>-120</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="EC2">
+        <v>1</v>
+      </c>
+      <c r="ED2">
+        <v>41000812</v>
+      </c>
+      <c r="EE2">
+        <v>41000814</v>
+      </c>
+      <c r="EF2">
+        <v>42022005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>48029065</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>-95</v>
+      </c>
+      <c r="X3">
+        <v>13542526</v>
+      </c>
+      <c r="AA3">
+        <v>10000</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>2000</v>
+      </c>
+      <c r="AF3">
+        <v>2000</v>
+      </c>
+      <c r="AI3">
+        <v>1000</v>
+      </c>
+      <c r="AJ3">
+        <v>1000</v>
+      </c>
+      <c r="AO3">
+        <v>10000</v>
+      </c>
+      <c r="BA3">
+        <v>-110</v>
+      </c>
+      <c r="BB3">
+        <v>-50</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="EC3">
+        <v>1</v>
+      </c>
+      <c r="ED3">
+        <v>41000812</v>
+      </c>
+      <c r="EE3">
+        <v>41000814</v>
+      </c>
+      <c r="EF3">
+        <v>42022005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30240161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>4200</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1000</v>
+      </c>
+      <c r="AF4">
+        <v>1000</v>
+      </c>
+      <c r="AI4">
+        <v>700</v>
+      </c>
+      <c r="AJ4">
+        <v>800</v>
+      </c>
+      <c r="AO4">
+        <v>100</v>
+      </c>
+      <c r="BA4">
+        <v>-400</v>
+      </c>
+      <c r="BB4">
+        <v>-100</v>
+      </c>
+      <c r="BC4">
+        <v>21861401</v>
+      </c>
+      <c r="BD4">
+        <v>400</v>
+      </c>
+      <c r="BE4">
+        <v>-100</v>
+      </c>
+      <c r="BF4">
+        <v>21861402</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>-400</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>91013005</v>
+      </c>
+      <c r="CV4">
+        <v>91000202</v>
+      </c>
+      <c r="CW4">
+        <v>90008001</v>
+      </c>
+      <c r="EB4">
+        <v>1</v>
+      </c>
+      <c r="ED4">
+        <v>41010101</v>
+      </c>
+      <c r="EE4">
+        <v>41010102</v>
+      </c>
+      <c r="EF4">
+        <v>41010103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30240158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>3000</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1000</v>
+      </c>
+      <c r="AF5">
+        <v>1000</v>
+      </c>
+      <c r="AI5">
+        <v>1200</v>
+      </c>
+      <c r="AJ5">
+        <v>1500</v>
+      </c>
+      <c r="AO5">
+        <v>100</v>
+      </c>
+      <c r="BA5">
+        <v>-200</v>
+      </c>
+      <c r="BB5">
+        <v>-120</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>200</v>
+      </c>
+      <c r="BE5">
+        <v>-120</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>-300</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>91013004</v>
+      </c>
+      <c r="CV5">
+        <v>91000201</v>
+      </c>
+      <c r="CW5">
+        <v>90003101</v>
+      </c>
+      <c r="EB5">
+        <v>1</v>
+      </c>
+      <c r="ED5">
+        <v>41010001</v>
+      </c>
+      <c r="EE5">
+        <v>41010002</v>
+      </c>
+      <c r="EF5">
+        <v>41010003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30240148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>6000</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1000</v>
+      </c>
+      <c r="AF6">
+        <v>1000</v>
+      </c>
+      <c r="AI6">
+        <v>1100</v>
+      </c>
+      <c r="AJ6">
+        <v>1100</v>
+      </c>
+      <c r="AO6">
+        <v>100</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>300</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>300</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>-300</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>-300</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>200</v>
+      </c>
+      <c r="BN6">
+        <v>200</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>-200</v>
+      </c>
+      <c r="BQ6">
+        <v>200</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>-200</v>
+      </c>
+      <c r="BT6">
+        <v>-200</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>200</v>
+      </c>
+      <c r="BW6">
+        <v>-200</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="CI6">
+        <v>91013007</v>
+      </c>
+      <c r="CV6">
+        <v>91000202</v>
+      </c>
+      <c r="CW6">
+        <v>90003201</v>
+      </c>
+      <c r="EB6">
+        <v>1</v>
+      </c>
+      <c r="ED6">
+        <v>41010401</v>
+      </c>
+      <c r="EE6">
+        <v>41010402</v>
+      </c>
+      <c r="EF6">
+        <v>41010403</v>
+      </c>
+      <c r="EG6">
+        <v>41010404</v>
+      </c>
+      <c r="EH6">
+        <v>41010405</v>
+      </c>
+      <c r="EI6">
+        <v>41010406</v>
+      </c>
+      <c r="EJ6">
+        <v>41010407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30240164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>2000</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>900</v>
+      </c>
+      <c r="AF7">
+        <v>900</v>
+      </c>
+      <c r="AH7">
+        <v>100</v>
+      </c>
+      <c r="AI7">
+        <v>600</v>
+      </c>
+      <c r="AJ7">
+        <v>600</v>
+      </c>
+      <c r="AO7">
+        <v>9130</v>
+      </c>
+      <c r="CV7">
+        <v>91000201</v>
+      </c>
+      <c r="CW7">
+        <v>90003101</v>
+      </c>
+      <c r="ED7">
+        <v>41000906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30240123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>3500</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1000</v>
+      </c>
+      <c r="AF8">
+        <v>1000</v>
+      </c>
+      <c r="AI8">
+        <v>600</v>
+      </c>
+      <c r="AJ8">
+        <v>700</v>
+      </c>
+      <c r="AO8">
+        <v>100</v>
+      </c>
+      <c r="BC8">
+        <v>21861503</v>
+      </c>
+      <c r="CV8">
+        <v>91000201</v>
+      </c>
+      <c r="CW8">
+        <v>90003101</v>
+      </c>
+      <c r="ED8">
+        <v>41010201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>30240160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>2100</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1000</v>
+      </c>
+      <c r="AF9">
+        <v>1000</v>
+      </c>
+      <c r="AI9">
+        <v>600</v>
+      </c>
+      <c r="AJ9">
+        <v>600</v>
+      </c>
+      <c r="AO9">
+        <v>100</v>
+      </c>
+      <c r="BB9">
+        <v>-280</v>
+      </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
+      <c r="CV9">
+        <v>91000201</v>
+      </c>
+      <c r="CW9">
+        <v>90003101</v>
+      </c>
+      <c r="EB9">
+        <v>1</v>
+      </c>
+      <c r="ED9">
+        <v>41010501</v>
+      </c>
+      <c r="EE9">
+        <v>41010502</v>
+      </c>
+      <c r="EF9">
+        <v>41010503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>30240102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>3600</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1000</v>
+      </c>
+      <c r="AF10">
+        <v>1000</v>
+      </c>
+      <c r="AI10">
+        <v>700</v>
+      </c>
+      <c r="AJ10">
+        <v>900</v>
+      </c>
+      <c r="AO10">
+        <v>100</v>
+      </c>
+      <c r="BC10">
+        <v>21860101</v>
+      </c>
+      <c r="CV10">
+        <v>91000201</v>
+      </c>
+      <c r="CW10">
+        <v>90003101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>30240110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>4000</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1000</v>
+      </c>
+      <c r="AF11">
+        <v>1000</v>
+      </c>
+      <c r="AI11">
+        <v>700</v>
+      </c>
+      <c r="AJ11">
+        <v>900</v>
+      </c>
+      <c r="AO11">
+        <v>100</v>
+      </c>
+      <c r="BC11">
+        <v>21860301</v>
+      </c>
+      <c r="CV11">
+        <v>91000201</v>
+      </c>
+      <c r="CW11">
+        <v>90003101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>48029039</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>65538</v>
+      </c>
+      <c r="M12">
+        <v>-85</v>
+      </c>
+      <c r="R12">
+        <v>14</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>6000</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1000</v>
+      </c>
+      <c r="AF12">
+        <v>1000</v>
+      </c>
+      <c r="AI12">
+        <v>700</v>
+      </c>
+      <c r="AJ12">
+        <v>900</v>
+      </c>
+      <c r="AO12">
+        <v>10000</v>
+      </c>
+      <c r="BB12">
+        <v>-300</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>300</v>
+      </c>
+      <c r="BF12">
+        <v>1</v>
+      </c>
+      <c r="CE12">
+        <v>1</v>
+      </c>
+      <c r="CI12">
+        <v>91045069</v>
+      </c>
+      <c r="CV12">
+        <v>91045070</v>
+      </c>
+      <c r="CW12">
+        <v>90003101</v>
+      </c>
+      <c r="EC12">
+        <v>1</v>
+      </c>
+      <c r="ED12">
+        <v>41062034</v>
+      </c>
+      <c r="EE12">
+        <v>41000812</v>
+      </c>
+      <c r="EF12">
+        <v>41000813</v>
+      </c>
+      <c r="EG12">
+        <v>41000814</v>
+      </c>
+      <c r="EH12">
+        <v>41000815</v>
+      </c>
+      <c r="EI12">
+        <v>41000817</v>
+      </c>
+      <c r="EJ12">
+        <v>42021001</v>
+      </c>
+      <c r="EK12">
+        <v>42021002</v>
+      </c>
+      <c r="EL12">
+        <v>41023101</v>
+      </c>
+      <c r="EM12">
+        <v>41023102</v>
+      </c>
+      <c r="EN12">
+        <v>41023106</v>
+      </c>
+      <c r="EO12">
+        <v>41023111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>48029042</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>65538</v>
+      </c>
+      <c r="M13">
+        <v>-85</v>
+      </c>
+      <c r="R13">
+        <v>14</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>6000</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1000</v>
+      </c>
+      <c r="AF13">
+        <v>1000</v>
+      </c>
+      <c r="AI13">
+        <v>700</v>
+      </c>
+      <c r="AJ13">
+        <v>900</v>
+      </c>
+      <c r="AO13">
+        <v>10000</v>
+      </c>
+      <c r="BB13">
+        <v>-300</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>300</v>
+      </c>
+      <c r="BF13">
+        <v>1</v>
+      </c>
+      <c r="CE13">
+        <v>1</v>
+      </c>
+      <c r="CI13">
+        <v>91045069</v>
+      </c>
+      <c r="CV13">
+        <v>91045070</v>
+      </c>
+      <c r="CW13">
+        <v>90003101</v>
+      </c>
+      <c r="EC13">
+        <v>1</v>
+      </c>
+      <c r="ED13">
+        <v>41062034</v>
+      </c>
+      <c r="EE13">
+        <v>41000812</v>
+      </c>
+      <c r="EF13">
+        <v>41000813</v>
+      </c>
+      <c r="EG13">
+        <v>41000814</v>
+      </c>
+      <c r="EH13">
+        <v>41000815</v>
+      </c>
+      <c r="EI13">
+        <v>41000817</v>
+      </c>
+      <c r="EJ13">
+        <v>42021001</v>
+      </c>
+      <c r="EK13">
+        <v>42021002</v>
+      </c>
+      <c r="EL13">
+        <v>41023103</v>
+      </c>
+      <c r="EM13">
+        <v>41023104</v>
+      </c>
+      <c r="EN13">
+        <v>41023106</v>
+      </c>
+      <c r="EO13">
+        <v>41023114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>30240146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>7800</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1000</v>
+      </c>
+      <c r="AF14">
+        <v>1000</v>
+      </c>
+      <c r="AI14">
+        <v>1000</v>
+      </c>
+      <c r="AJ14">
+        <v>900</v>
+      </c>
+      <c r="AO14">
+        <v>4000</v>
+      </c>
+      <c r="BC14">
+        <v>21800401</v>
+      </c>
+      <c r="BE14">
+        <v>100</v>
+      </c>
+      <c r="BF14">
+        <v>21800402</v>
+      </c>
+      <c r="BH14">
+        <v>200</v>
+      </c>
+      <c r="BI14">
+        <v>21800403</v>
+      </c>
+      <c r="BK14">
+        <v>-200</v>
+      </c>
+      <c r="BL14">
+        <v>21800405</v>
+      </c>
+      <c r="CI14">
+        <v>91045074</v>
+      </c>
+      <c r="CV14">
+        <v>91000207</v>
+      </c>
+      <c r="CW14">
+        <v>90008001</v>
+      </c>
+      <c r="EB14">
+        <v>1</v>
+      </c>
+      <c r="ED14">
+        <v>41020401</v>
+      </c>
+      <c r="EE14">
+        <v>41020402</v>
+      </c>
+      <c r="EF14">
+        <v>41020403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>30240202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>4000</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1000</v>
+      </c>
+      <c r="AF15">
+        <v>1000</v>
+      </c>
+      <c r="AI15">
+        <v>800</v>
+      </c>
+      <c r="AJ15">
+        <v>800</v>
+      </c>
+      <c r="AO15">
+        <v>5000</v>
+      </c>
+      <c r="BC15">
+        <v>21870101</v>
+      </c>
+      <c r="BF15">
+        <v>21870101</v>
+      </c>
+      <c r="BI15">
+        <v>21870101</v>
+      </c>
+      <c r="BL15">
+        <v>21870101</v>
+      </c>
+      <c r="BO15">
+        <v>21870101</v>
+      </c>
+      <c r="CV15">
+        <v>91000201</v>
+      </c>
+      <c r="CW15">
+        <v>90003101</v>
+      </c>
+      <c r="ED15">
+        <v>41000809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:145" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>30240210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1000</v>
+      </c>
+      <c r="AF16">
+        <v>1000</v>
+      </c>
+      <c r="AI16">
+        <v>700</v>
+      </c>
+      <c r="AJ16">
+        <v>900</v>
+      </c>
+      <c r="AO16">
+        <v>40000</v>
+      </c>
+      <c r="BC16">
+        <v>21870107</v>
+      </c>
+      <c r="CV16">
+        <v>91000201</v>
+      </c>
+      <c r="CW16">
+        <v>90003101</v>
+      </c>
+      <c r="EC16">
+        <v>1</v>
+      </c>
+      <c r="ED16">
+        <v>41011032</v>
+      </c>
+      <c r="EE16">
+        <v>41000903</v>
+      </c>
+      <c r="EF16">
+        <v>41011033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>30231017</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>3000</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1000</v>
+      </c>
+      <c r="AF17">
+        <v>1000</v>
+      </c>
+      <c r="AH17">
+        <v>100</v>
+      </c>
+      <c r="AI17">
+        <v>600</v>
+      </c>
+      <c r="AJ17">
+        <v>600</v>
+      </c>
+      <c r="AO17">
+        <v>800</v>
+      </c>
+      <c r="BB17">
+        <v>100</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="CI17">
+        <v>91045044</v>
+      </c>
+      <c r="CV17">
+        <v>91000201</v>
+      </c>
+      <c r="CW17">
+        <v>90003101</v>
+      </c>
+      <c r="EB17">
+        <v>1</v>
+      </c>
+      <c r="EC17">
+        <v>1</v>
+      </c>
+      <c r="ED17">
+        <v>41021564</v>
+      </c>
+      <c r="EE17">
+        <v>41021565</v>
+      </c>
+      <c r="EF17">
+        <v>41000904</v>
+      </c>
+      <c r="EG17">
+        <v>41022103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>150</v>
+      </c>
+      <c r="U18">
+        <v>10000250</v>
+      </c>
+      <c r="V18">
+        <v>250</v>
+      </c>
+      <c r="W18">
+        <v>625001</v>
+      </c>
+      <c r="AA18">
+        <v>2000</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1000</v>
+      </c>
+      <c r="AF18">
+        <v>1000</v>
+      </c>
+      <c r="AI18">
+        <v>800</v>
+      </c>
+      <c r="AJ18">
+        <v>800</v>
+      </c>
+      <c r="AO18">
+        <v>56840</v>
+      </c>
+      <c r="CV18">
+        <v>91000201</v>
+      </c>
+      <c r="CW18">
+        <v>90003101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>150</v>
+      </c>
+      <c r="U19">
+        <v>10000250</v>
+      </c>
+      <c r="V19">
+        <v>250</v>
+      </c>
+      <c r="W19">
+        <v>625000</v>
+      </c>
+      <c r="AA19">
+        <v>2000</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1000</v>
+      </c>
+      <c r="AF19">
+        <v>1000</v>
+      </c>
+      <c r="AI19">
+        <v>800</v>
+      </c>
+      <c r="AJ19">
+        <v>800</v>
+      </c>
+      <c r="AO19">
+        <v>56840</v>
+      </c>
+      <c r="CV19">
+        <v>91000201</v>
+      </c>
+      <c r="CW19">
+        <v>90003101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>48029014</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>65538</v>
+      </c>
+      <c r="M20">
+        <v>-85</v>
+      </c>
+      <c r="R20">
+        <v>14</v>
+      </c>
+      <c r="S20">
+        <v>100</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="AA20">
+        <v>6000</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1000</v>
+      </c>
+      <c r="AF20">
+        <v>1000</v>
+      </c>
+      <c r="AI20">
+        <v>700</v>
+      </c>
+      <c r="AJ20">
+        <v>900</v>
+      </c>
+      <c r="AO20">
+        <v>10000</v>
+      </c>
+      <c r="BB20">
+        <v>200</v>
+      </c>
+      <c r="BC20">
+        <v>1</v>
+      </c>
+      <c r="CE20">
+        <v>1</v>
+      </c>
+      <c r="CI20">
+        <v>91045065</v>
+      </c>
+      <c r="CV20">
+        <v>91045066</v>
+      </c>
+      <c r="CW20">
+        <v>90003101</v>
+      </c>
+      <c r="EC20">
+        <v>1</v>
+      </c>
+      <c r="ED20">
+        <v>41062034</v>
+      </c>
+      <c r="EE20">
+        <v>41000812</v>
+      </c>
+      <c r="EF20">
+        <v>41000813</v>
+      </c>
+      <c r="EG20">
+        <v>41000814</v>
+      </c>
+      <c r="EH20">
+        <v>41000815</v>
+      </c>
+      <c r="EI20">
+        <v>41000817</v>
+      </c>
+      <c r="EJ20">
+        <v>42020001</v>
+      </c>
+      <c r="EK20">
+        <v>41023001</v>
+      </c>
+      <c r="EL20">
+        <v>41023006</v>
+      </c>
+      <c r="EM20">
+        <v>41023007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>48029025</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>65538</v>
+      </c>
+      <c r="M21">
+        <v>-85</v>
+      </c>
+      <c r="R21">
+        <v>14</v>
+      </c>
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="X21">
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <v>6000</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1000</v>
+      </c>
+      <c r="AF21">
+        <v>1000</v>
+      </c>
+      <c r="AI21">
+        <v>700</v>
+      </c>
+      <c r="AJ21">
+        <v>900</v>
+      </c>
+      <c r="AO21">
+        <v>10000</v>
+      </c>
+      <c r="BB21">
+        <v>200</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="CE21">
+        <v>1</v>
+      </c>
+      <c r="CI21">
+        <v>91045065</v>
+      </c>
+      <c r="CV21">
+        <v>91045066</v>
+      </c>
+      <c r="CW21">
+        <v>90003101</v>
+      </c>
+      <c r="EC21">
+        <v>1</v>
+      </c>
+      <c r="ED21">
+        <v>41062034</v>
+      </c>
+      <c r="EE21">
+        <v>41000812</v>
+      </c>
+      <c r="EF21">
+        <v>41000813</v>
+      </c>
+      <c r="EG21">
+        <v>41000814</v>
+      </c>
+      <c r="EH21">
+        <v>41000815</v>
+      </c>
+      <c r="EI21">
+        <v>41000817</v>
+      </c>
+      <c r="EJ21">
+        <v>42020001</v>
+      </c>
+      <c r="EK21">
+        <v>41023201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>48029026</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>65538</v>
+      </c>
+      <c r="M22">
+        <v>-85</v>
+      </c>
+      <c r="R22">
+        <v>14</v>
+      </c>
+      <c r="S22">
+        <v>100</v>
+      </c>
+      <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="AA22">
+        <v>6000</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1000</v>
+      </c>
+      <c r="AF22">
+        <v>1000</v>
+      </c>
+      <c r="AI22">
+        <v>700</v>
+      </c>
+      <c r="AJ22">
+        <v>900</v>
+      </c>
+      <c r="AO22">
+        <v>10000</v>
+      </c>
+      <c r="BB22">
+        <v>200</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="CE22">
+        <v>1</v>
+      </c>
+      <c r="CI22">
+        <v>91045065</v>
+      </c>
+      <c r="CV22">
+        <v>91045066</v>
+      </c>
+      <c r="CW22">
+        <v>90003101</v>
+      </c>
+      <c r="EC22">
+        <v>1</v>
+      </c>
+      <c r="ED22">
+        <v>41062034</v>
+      </c>
+      <c r="EE22">
+        <v>41000812</v>
+      </c>
+      <c r="EF22">
+        <v>41000813</v>
+      </c>
+      <c r="EG22">
+        <v>41000814</v>
+      </c>
+      <c r="EH22">
+        <v>41000815</v>
+      </c>
+      <c r="EI22">
+        <v>41000817</v>
+      </c>
+      <c r="EJ22">
+        <v>42020001</v>
+      </c>
+      <c r="EK22">
+        <v>41023202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>48029045</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>65538</v>
+      </c>
+      <c r="M23">
+        <v>-85</v>
+      </c>
+      <c r="R23">
+        <v>14</v>
+      </c>
+      <c r="S23">
+        <v>100</v>
+      </c>
+      <c r="X23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>6000</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1000</v>
+      </c>
+      <c r="AF23">
+        <v>1000</v>
+      </c>
+      <c r="AI23">
+        <v>700</v>
+      </c>
+      <c r="AJ23">
+        <v>900</v>
+      </c>
+      <c r="AO23">
+        <v>10000</v>
+      </c>
+      <c r="BB23">
+        <v>-300</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BE23">
+        <v>300</v>
+      </c>
+      <c r="BF23">
+        <v>1</v>
+      </c>
+      <c r="CE23">
+        <v>1</v>
+      </c>
+      <c r="CI23">
+        <v>91045069</v>
+      </c>
+      <c r="CV23">
+        <v>91045070</v>
+      </c>
+      <c r="CW23">
+        <v>90003101</v>
+      </c>
+      <c r="EC23">
+        <v>1</v>
+      </c>
+      <c r="ED23">
+        <v>41062034</v>
+      </c>
+      <c r="EE23">
+        <v>41000812</v>
+      </c>
+      <c r="EF23">
+        <v>41000813</v>
+      </c>
+      <c r="EG23">
+        <v>41000814</v>
+      </c>
+      <c r="EH23">
+        <v>41000815</v>
+      </c>
+      <c r="EI23">
+        <v>41000817</v>
+      </c>
+      <c r="EJ23">
+        <v>42021001</v>
+      </c>
+      <c r="EK23">
+        <v>42021002</v>
+      </c>
+      <c r="EL23">
+        <v>41023201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>48029046</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>65538</v>
+      </c>
+      <c r="M24">
+        <v>-85</v>
+      </c>
+      <c r="R24">
+        <v>14</v>
+      </c>
+      <c r="S24">
+        <v>100</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>6000</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1000</v>
+      </c>
+      <c r="AF24">
+        <v>1000</v>
+      </c>
+      <c r="AI24">
+        <v>700</v>
+      </c>
+      <c r="AJ24">
+        <v>900</v>
+      </c>
+      <c r="AO24">
+        <v>10000</v>
+      </c>
+      <c r="BB24">
+        <v>-300</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BE24">
+        <v>300</v>
+      </c>
+      <c r="BF24">
+        <v>1</v>
+      </c>
+      <c r="CE24">
+        <v>1</v>
+      </c>
+      <c r="CI24">
+        <v>91045069</v>
+      </c>
+      <c r="CV24">
+        <v>91045070</v>
+      </c>
+      <c r="CW24">
+        <v>90003101</v>
+      </c>
+      <c r="EC24">
+        <v>1</v>
+      </c>
+      <c r="ED24">
+        <v>41062034</v>
+      </c>
+      <c r="EE24">
+        <v>41000812</v>
+      </c>
+      <c r="EF24">
+        <v>41000813</v>
+      </c>
+      <c r="EG24">
+        <v>41000814</v>
+      </c>
+      <c r="EH24">
+        <v>41000815</v>
+      </c>
+      <c r="EI24">
+        <v>41000817</v>
+      </c>
+      <c r="EJ24">
+        <v>42021001</v>
+      </c>
+      <c r="EK24">
+        <v>42021002</v>
+      </c>
+      <c r="EL24">
+        <v>41023202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>30231073</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="AA25">
+        <v>2500</v>
+      </c>
+      <c r="AC25">
+        <v>2</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>800</v>
+      </c>
+      <c r="AF25">
+        <v>800</v>
+      </c>
+      <c r="AI25">
+        <v>600</v>
+      </c>
+      <c r="AJ25">
+        <v>900</v>
+      </c>
+      <c r="AO25">
+        <v>251838</v>
+      </c>
+      <c r="BA25">
+        <v>-400</v>
+      </c>
+      <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>400</v>
+      </c>
+      <c r="BF25">
+        <v>1</v>
+      </c>
+      <c r="CE25">
+        <v>1</v>
+      </c>
+      <c r="CV25">
+        <v>91000201</v>
+      </c>
+      <c r="CW25">
+        <v>90003101</v>
+      </c>
+      <c r="EB25">
+        <v>1</v>
+      </c>
+      <c r="EC25">
+        <v>1</v>
+      </c>
+      <c r="ED25">
+        <v>41022201</v>
+      </c>
+      <c r="EE25">
+        <v>41022202</v>
+      </c>
+      <c r="EF25">
+        <v>41022213</v>
+      </c>
+      <c r="EG25">
+        <v>41022214</v>
+      </c>
+      <c r="EH25">
+        <v>41022216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>30231076</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>2500</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>800</v>
+      </c>
+      <c r="AF26">
+        <v>800</v>
+      </c>
+      <c r="AI26">
+        <v>600</v>
+      </c>
+      <c r="AJ26">
+        <v>900</v>
+      </c>
+      <c r="AO26">
+        <v>251838</v>
+      </c>
+      <c r="BA26">
+        <v>-400</v>
+      </c>
+      <c r="BC26">
+        <v>1</v>
+      </c>
+      <c r="BD26">
+        <v>400</v>
+      </c>
+      <c r="BF26">
+        <v>1</v>
+      </c>
+      <c r="CE26">
+        <v>1</v>
+      </c>
+      <c r="CV26">
+        <v>91000201</v>
+      </c>
+      <c r="CW26">
+        <v>90003101</v>
+      </c>
+      <c r="EB26">
+        <v>1</v>
+      </c>
+      <c r="EC26">
+        <v>1</v>
+      </c>
+      <c r="ED26">
+        <v>41022207</v>
+      </c>
+      <c r="EE26">
+        <v>41022208</v>
+      </c>
+      <c r="EF26">
+        <v>41022213</v>
+      </c>
+      <c r="EG26">
+        <v>41022215</v>
+      </c>
+      <c r="EH26">
+        <v>41022216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>30231062</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
+        <v>6000</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1000</v>
+      </c>
+      <c r="AF27">
+        <v>1000</v>
+      </c>
+      <c r="AI27">
+        <v>1000</v>
+      </c>
+      <c r="AJ27">
+        <v>1000</v>
+      </c>
+      <c r="AO27">
+        <v>20000</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>-400</v>
+      </c>
+      <c r="BC27">
+        <v>1</v>
+      </c>
+      <c r="BE27">
+        <v>-400</v>
+      </c>
+      <c r="BF27">
+        <v>1</v>
+      </c>
+      <c r="BH27">
+        <v>-400</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="CV27">
+        <v>91000201</v>
+      </c>
+      <c r="CW27">
+        <v>90003101</v>
+      </c>
+      <c r="EB27">
+        <v>1</v>
+      </c>
+      <c r="EC27">
+        <v>1</v>
+      </c>
+      <c r="ED27">
+        <v>41021811</v>
+      </c>
+      <c r="EE27">
+        <v>41021820</v>
+      </c>
+      <c r="EF27">
+        <v>41021821</v>
+      </c>
+      <c r="EG27">
+        <v>41021838</v>
+      </c>
+      <c r="EH27">
+        <v>41021840</v>
+      </c>
+      <c r="EI27">
+        <v>41000907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>30240117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>3000</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1000</v>
+      </c>
+      <c r="AF28">
+        <v>1000</v>
+      </c>
+      <c r="AH28">
+        <v>50</v>
+      </c>
+      <c r="AI28">
+        <v>900</v>
+      </c>
+      <c r="AJ28">
+        <v>850</v>
+      </c>
+      <c r="AO28">
+        <v>100</v>
+      </c>
+      <c r="BC28">
+        <v>21860401</v>
+      </c>
+      <c r="CV28">
+        <v>91000201</v>
+      </c>
+      <c r="CW28">
+        <v>90003101</v>
+      </c>
+      <c r="EB28">
+        <v>1</v>
+      </c>
+      <c r="ED28">
+        <v>41010109</v>
+      </c>
+      <c r="EE28">
+        <v>41010110</v>
+      </c>
+      <c r="EF28">
+        <v>41010901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>30240157</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>6000</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1000</v>
+      </c>
+      <c r="AF29">
+        <v>1000</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>900</v>
+      </c>
+      <c r="AJ29">
+        <v>900</v>
+      </c>
+      <c r="AO29">
+        <v>100</v>
+      </c>
+      <c r="BC29">
+        <v>21861101</v>
+      </c>
+      <c r="CF29">
+        <v>91011504</v>
+      </c>
+      <c r="CI29">
+        <v>91011503</v>
+      </c>
+      <c r="CQ29">
+        <v>91011503</v>
+      </c>
+      <c r="CV29">
+        <v>91000102</v>
+      </c>
+      <c r="CW29">
+        <v>90008001</v>
+      </c>
+      <c r="EB29">
+        <v>1</v>
+      </c>
+      <c r="ED29">
+        <v>41000611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>48029125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>-94</v>
+      </c>
+      <c r="R30">
+        <v>14</v>
+      </c>
+      <c r="S30">
+        <v>3000600</v>
+      </c>
+      <c r="X30">
+        <v>13542526</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>10000</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>2000</v>
+      </c>
+      <c r="AF30">
+        <v>2000</v>
+      </c>
+      <c r="AI30">
+        <v>1000</v>
+      </c>
+      <c r="AJ30">
+        <v>1000</v>
+      </c>
+      <c r="AO30">
+        <v>100</v>
+      </c>
+      <c r="BA30">
+        <v>2200</v>
+      </c>
+      <c r="BB30">
+        <v>515</v>
+      </c>
+      <c r="BC30">
+        <v>1</v>
+      </c>
+      <c r="BD30">
+        <v>500</v>
+      </c>
+      <c r="BE30">
+        <v>1550</v>
+      </c>
+      <c r="BF30">
+        <v>1</v>
+      </c>
+      <c r="BG30">
+        <v>450</v>
+      </c>
+      <c r="BH30">
+        <v>100</v>
+      </c>
+      <c r="BI30">
+        <v>1</v>
+      </c>
+      <c r="BJ30">
+        <v>800</v>
+      </c>
+      <c r="BK30">
+        <v>100</v>
+      </c>
+      <c r="BL30">
+        <v>1</v>
+      </c>
+      <c r="BM30">
+        <v>1950</v>
+      </c>
+      <c r="BN30">
+        <v>1350</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+      <c r="BP30">
+        <v>2550</v>
+      </c>
+      <c r="BQ30">
+        <v>1250</v>
+      </c>
+      <c r="BR30">
+        <v>1</v>
+      </c>
+      <c r="BS30">
+        <v>2550</v>
+      </c>
+      <c r="BT30">
+        <v>950</v>
+      </c>
+      <c r="BU30">
+        <v>1</v>
+      </c>
+      <c r="EC30">
+        <v>1</v>
+      </c>
+      <c r="ED30">
+        <v>41000812</v>
+      </c>
+      <c r="EE30">
+        <v>41000814</v>
+      </c>
+      <c r="EF30">
+        <v>41023301</v>
+      </c>
+      <c r="EG30">
+        <v>42029001</v>
+      </c>
+      <c r="EH30">
+        <v>42029002</v>
+      </c>
+      <c r="EI30">
+        <v>42029003</v>
+      </c>
+      <c r="EJ30">
+        <v>42029004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30231014</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>3000</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1000</v>
+      </c>
+      <c r="AF31">
+        <v>1000</v>
+      </c>
+      <c r="AH31">
+        <v>100</v>
+      </c>
+      <c r="AI31">
+        <v>600</v>
+      </c>
+      <c r="AJ31">
+        <v>600</v>
+      </c>
+      <c r="AO31">
+        <v>800</v>
+      </c>
+      <c r="BB31">
+        <v>100</v>
+      </c>
+      <c r="BC31">
+        <v>1</v>
+      </c>
+      <c r="CI31">
+        <v>91045044</v>
+      </c>
+      <c r="CV31">
+        <v>91000201</v>
+      </c>
+      <c r="CW31">
+        <v>90003101</v>
+      </c>
+      <c r="EB31">
+        <v>1</v>
+      </c>
+      <c r="EC31">
+        <v>1</v>
+      </c>
+      <c r="ED31">
+        <v>41021561</v>
+      </c>
+      <c r="EE31">
+        <v>41021565</v>
+      </c>
+      <c r="EF31">
+        <v>41000904</v>
+      </c>
+      <c r="EG31">
+        <v>41022103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>48029007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>65538</v>
+      </c>
+      <c r="M32">
+        <v>-85</v>
+      </c>
+      <c r="R32">
+        <v>14</v>
+      </c>
+      <c r="S32">
+        <v>100</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>6000</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1000</v>
+      </c>
+      <c r="AF32">
+        <v>1000</v>
+      </c>
+      <c r="AI32">
+        <v>700</v>
+      </c>
+      <c r="AJ32">
+        <v>900</v>
+      </c>
+      <c r="AO32">
+        <v>10000</v>
+      </c>
+      <c r="BB32">
+        <v>200</v>
+      </c>
+      <c r="BC32">
+        <v>1</v>
+      </c>
+      <c r="CE32">
+        <v>1</v>
+      </c>
+      <c r="CI32">
+        <v>91045065</v>
+      </c>
+      <c r="CV32">
+        <v>91045066</v>
+      </c>
+      <c r="CW32">
+        <v>90003101</v>
+      </c>
+      <c r="EC32">
+        <v>1</v>
+      </c>
+      <c r="ED32">
+        <v>41062034</v>
+      </c>
+      <c r="EE32">
+        <v>41000812</v>
+      </c>
+      <c r="EF32">
+        <v>41000813</v>
+      </c>
+      <c r="EG32">
+        <v>41000814</v>
+      </c>
+      <c r="EH32">
+        <v>41000815</v>
+      </c>
+      <c r="EI32">
+        <v>41000817</v>
+      </c>
+      <c r="EJ32">
+        <v>42020001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>48029040</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>65538</v>
+      </c>
+      <c r="M33">
+        <v>-85</v>
+      </c>
+      <c r="R33">
+        <v>14</v>
+      </c>
+      <c r="S33">
+        <v>100</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>6000</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1000</v>
+      </c>
+      <c r="AF33">
+        <v>1000</v>
+      </c>
+      <c r="AI33">
+        <v>700</v>
+      </c>
+      <c r="AJ33">
+        <v>900</v>
+      </c>
+      <c r="AO33">
+        <v>10000</v>
+      </c>
+      <c r="BB33">
+        <v>-300</v>
+      </c>
+      <c r="BC33">
+        <v>1</v>
+      </c>
+      <c r="BE33">
+        <v>300</v>
+      </c>
+      <c r="BF33">
+        <v>1</v>
+      </c>
+      <c r="CE33">
+        <v>1</v>
+      </c>
+      <c r="CI33">
+        <v>91045069</v>
+      </c>
+      <c r="CV33">
+        <v>91045070</v>
+      </c>
+      <c r="CW33">
+        <v>90003101</v>
+      </c>
+      <c r="EC33">
+        <v>1</v>
+      </c>
+      <c r="ED33">
+        <v>41062034</v>
+      </c>
+      <c r="EE33">
+        <v>41000812</v>
+      </c>
+      <c r="EF33">
+        <v>41000813</v>
+      </c>
+      <c r="EG33">
+        <v>41000814</v>
+      </c>
+      <c r="EH33">
+        <v>41000815</v>
+      </c>
+      <c r="EI33">
+        <v>41000817</v>
+      </c>
+      <c r="EJ33">
+        <v>42021001</v>
+      </c>
+      <c r="EK33">
+        <v>42021002</v>
+      </c>
+      <c r="EL33">
+        <v>41023101</v>
+      </c>
+      <c r="EM33">
+        <v>41023102</v>
+      </c>
+      <c r="EN33">
+        <v>41023106</v>
+      </c>
+      <c r="EO33">
+        <v>41023112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>48029043</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>65538</v>
+      </c>
+      <c r="M34">
+        <v>-85</v>
+      </c>
+      <c r="R34">
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <v>100</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="AA34">
+        <v>6000</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1000</v>
+      </c>
+      <c r="AF34">
+        <v>1000</v>
+      </c>
+      <c r="AI34">
+        <v>700</v>
+      </c>
+      <c r="AJ34">
+        <v>900</v>
+      </c>
+      <c r="AO34">
+        <v>10000</v>
+      </c>
+      <c r="BB34">
+        <v>-300</v>
+      </c>
+      <c r="BC34">
+        <v>1</v>
+      </c>
+      <c r="BE34">
+        <v>300</v>
+      </c>
+      <c r="BF34">
+        <v>1</v>
+      </c>
+      <c r="CE34">
+        <v>1</v>
+      </c>
+      <c r="CI34">
+        <v>91045069</v>
+      </c>
+      <c r="CV34">
+        <v>91045070</v>
+      </c>
+      <c r="CW34">
+        <v>90003101</v>
+      </c>
+      <c r="EC34">
+        <v>1</v>
+      </c>
+      <c r="ED34">
+        <v>41062034</v>
+      </c>
+      <c r="EE34">
+        <v>41000812</v>
+      </c>
+      <c r="EF34">
+        <v>41000813</v>
+      </c>
+      <c r="EG34">
+        <v>41000814</v>
+      </c>
+      <c r="EH34">
+        <v>41000815</v>
+      </c>
+      <c r="EI34">
+        <v>41000817</v>
+      </c>
+      <c r="EJ34">
+        <v>42021001</v>
+      </c>
+      <c r="EK34">
+        <v>42021002</v>
+      </c>
+      <c r="EL34">
+        <v>41023103</v>
+      </c>
+      <c r="EM34">
+        <v>41023104</v>
+      </c>
+      <c r="EN34">
+        <v>41023106</v>
+      </c>
+      <c r="EO34">
+        <v>41023115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>48029015</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>65538</v>
+      </c>
+      <c r="M35">
+        <v>-85</v>
+      </c>
+      <c r="R35">
+        <v>14</v>
+      </c>
+      <c r="S35">
+        <v>100</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="AA35">
+        <v>6000</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1000</v>
+      </c>
+      <c r="AF35">
+        <v>1000</v>
+      </c>
+      <c r="AI35">
+        <v>700</v>
+      </c>
+      <c r="AJ35">
+        <v>900</v>
+      </c>
+      <c r="AO35">
+        <v>10000</v>
+      </c>
+      <c r="BB35">
+        <v>200</v>
+      </c>
+      <c r="BC35">
+        <v>1</v>
+      </c>
+      <c r="CE35">
+        <v>1</v>
+      </c>
+      <c r="CI35">
+        <v>91045065</v>
+      </c>
+      <c r="CV35">
+        <v>91045066</v>
+      </c>
+      <c r="CW35">
+        <v>90003101</v>
+      </c>
+      <c r="EC35">
+        <v>1</v>
+      </c>
+      <c r="ED35">
+        <v>41062034</v>
+      </c>
+      <c r="EE35">
+        <v>41000812</v>
+      </c>
+      <c r="EF35">
+        <v>41000813</v>
+      </c>
+      <c r="EG35">
+        <v>41000814</v>
+      </c>
+      <c r="EH35">
+        <v>41000815</v>
+      </c>
+      <c r="EI35">
+        <v>41000817</v>
+      </c>
+      <c r="EJ35">
+        <v>42020001</v>
+      </c>
+      <c r="EK35">
+        <v>41023002</v>
+      </c>
+      <c r="EL35">
+        <v>41023006</v>
+      </c>
+      <c r="EM35">
+        <v>41023007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>30231074</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>2500</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>800</v>
+      </c>
+      <c r="AF36">
+        <v>800</v>
+      </c>
+      <c r="AI36">
+        <v>600</v>
+      </c>
+      <c r="AJ36">
+        <v>900</v>
+      </c>
+      <c r="AO36">
+        <v>251838</v>
+      </c>
+      <c r="BA36">
+        <v>-400</v>
+      </c>
+      <c r="BC36">
+        <v>1</v>
+      </c>
+      <c r="BD36">
+        <v>400</v>
+      </c>
+      <c r="BF36">
+        <v>1</v>
+      </c>
+      <c r="CE36">
+        <v>1</v>
+      </c>
+      <c r="CV36">
+        <v>91000201</v>
+      </c>
+      <c r="CW36">
+        <v>90003101</v>
+      </c>
+      <c r="EB36">
+        <v>1</v>
+      </c>
+      <c r="EC36">
+        <v>1</v>
+      </c>
+      <c r="ED36">
+        <v>41022203</v>
+      </c>
+      <c r="EE36">
+        <v>41022204</v>
+      </c>
+      <c r="EF36">
+        <v>41022213</v>
+      </c>
+      <c r="EG36">
+        <v>41022214</v>
+      </c>
+      <c r="EH36">
+        <v>41022216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>30231077</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>2500</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>800</v>
+      </c>
+      <c r="AF37">
+        <v>800</v>
+      </c>
+      <c r="AI37">
+        <v>600</v>
+      </c>
+      <c r="AJ37">
+        <v>900</v>
+      </c>
+      <c r="AO37">
+        <v>251838</v>
+      </c>
+      <c r="BA37">
+        <v>-400</v>
+      </c>
+      <c r="BC37">
+        <v>1</v>
+      </c>
+      <c r="BD37">
+        <v>400</v>
+      </c>
+      <c r="BF37">
+        <v>1</v>
+      </c>
+      <c r="CE37">
+        <v>1</v>
+      </c>
+      <c r="CV37">
+        <v>91000201</v>
+      </c>
+      <c r="CW37">
+        <v>90003101</v>
+      </c>
+      <c r="EB37">
+        <v>1</v>
+      </c>
+      <c r="EC37">
+        <v>1</v>
+      </c>
+      <c r="ED37">
+        <v>41022209</v>
+      </c>
+      <c r="EE37">
+        <v>41022210</v>
+      </c>
+      <c r="EF37">
+        <v>41022213</v>
+      </c>
+      <c r="EG37">
+        <v>41022215</v>
+      </c>
+      <c r="EH37">
+        <v>41022216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>30231063</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>6000</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1000</v>
+      </c>
+      <c r="AF38">
+        <v>1000</v>
+      </c>
+      <c r="AI38">
+        <v>1000</v>
+      </c>
+      <c r="AJ38">
+        <v>1000</v>
+      </c>
+      <c r="AO38">
+        <v>20000</v>
+      </c>
+      <c r="AR38">
+        <v>1</v>
+      </c>
+      <c r="BB38">
+        <v>-400</v>
+      </c>
+      <c r="BC38">
+        <v>1</v>
+      </c>
+      <c r="BE38">
+        <v>-400</v>
+      </c>
+      <c r="BF38">
+        <v>1</v>
+      </c>
+      <c r="BH38">
+        <v>-400</v>
+      </c>
+      <c r="BI38">
+        <v>1</v>
+      </c>
+      <c r="CV38">
+        <v>91000201</v>
+      </c>
+      <c r="CW38">
+        <v>90003101</v>
+      </c>
+      <c r="EB38">
+        <v>1</v>
+      </c>
+      <c r="EC38">
+        <v>1</v>
+      </c>
+      <c r="ED38">
+        <v>41021812</v>
+      </c>
+      <c r="EE38">
+        <v>41021822</v>
+      </c>
+      <c r="EF38">
+        <v>41021823</v>
+      </c>
+      <c r="EG38">
+        <v>41021838</v>
+      </c>
+      <c r="EH38">
+        <v>41021840</v>
+      </c>
+      <c r="EI38">
+        <v>41000907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>30240105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>3500</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>1000</v>
+      </c>
+      <c r="AF39">
+        <v>1000</v>
+      </c>
+      <c r="AI39">
+        <v>700</v>
+      </c>
+      <c r="AJ39">
+        <v>900</v>
+      </c>
+      <c r="AO39">
+        <v>100</v>
+      </c>
+      <c r="BC39">
+        <v>21860201</v>
+      </c>
+      <c r="CV39">
+        <v>91000201</v>
+      </c>
+      <c r="CW39">
+        <v>90003101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>30240118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>3000</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1000</v>
+      </c>
+      <c r="AF40">
+        <v>1000</v>
+      </c>
+      <c r="AH40">
+        <v>50</v>
+      </c>
+      <c r="AI40">
+        <v>900</v>
+      </c>
+      <c r="AJ40">
+        <v>850</v>
+      </c>
+      <c r="AO40">
+        <v>100</v>
+      </c>
+      <c r="BC40">
+        <v>21860402</v>
+      </c>
+      <c r="CV40">
+        <v>91000201</v>
+      </c>
+      <c r="CW40">
+        <v>90003101</v>
+      </c>
+      <c r="EB40">
+        <v>1</v>
+      </c>
+      <c r="ED40">
+        <v>41010111</v>
+      </c>
+      <c r="EE40">
+        <v>41010112</v>
+      </c>
+      <c r="EF40">
+        <v>41010901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>48029142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="AA41">
+        <v>10000</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1000</v>
+      </c>
+      <c r="AF41">
+        <v>1000</v>
+      </c>
+      <c r="AI41">
+        <v>900</v>
+      </c>
+      <c r="AJ41">
+        <v>450</v>
+      </c>
+      <c r="AO41">
+        <v>10000</v>
+      </c>
+      <c r="BA41">
+        <v>-300</v>
+      </c>
+      <c r="BB41">
+        <v>-135</v>
+      </c>
+      <c r="BC41">
+        <v>1</v>
+      </c>
+      <c r="BD41">
+        <v>300</v>
+      </c>
+      <c r="BE41">
+        <v>-135</v>
+      </c>
+      <c r="BF41">
+        <v>1</v>
+      </c>
+      <c r="BH41">
+        <v>-480</v>
+      </c>
+      <c r="BI41">
+        <v>1</v>
+      </c>
+      <c r="BJ41">
+        <v>-150</v>
+      </c>
+      <c r="BK41">
+        <v>320</v>
+      </c>
+      <c r="BL41">
+        <v>1</v>
+      </c>
+      <c r="BM41">
+        <v>150</v>
+      </c>
+      <c r="BN41">
+        <v>320</v>
+      </c>
+      <c r="BO41">
+        <v>1</v>
+      </c>
+      <c r="CE41">
+        <v>1</v>
+      </c>
+      <c r="CI41">
+        <v>91045090</v>
+      </c>
+      <c r="CV41">
+        <v>91000207</v>
+      </c>
+      <c r="CW41">
+        <v>90008001</v>
+      </c>
+      <c r="EC41">
+        <v>1</v>
+      </c>
+      <c r="ED41">
+        <v>41024601</v>
+      </c>
+      <c r="EE41">
+        <v>41024602</v>
+      </c>
+      <c r="EF41">
+        <v>41024603</v>
+      </c>
+      <c r="EG41">
+        <v>41024604</v>
+      </c>
+      <c r="EH41">
+        <v>41024605</v>
+      </c>
+      <c r="EI41">
+        <v>41024606</v>
+      </c>
+      <c r="EJ41">
+        <v>41024607</v>
+      </c>
+      <c r="EK41">
+        <v>41024608</v>
+      </c>
+      <c r="EL41">
+        <v>41024611</v>
+      </c>
+      <c r="EM41">
+        <v>41024612</v>
+      </c>
+      <c r="EN41">
+        <v>41024615</v>
+      </c>
+      <c r="EO41">
+        <v>41024616</v>
+      </c>
+      <c r="EP41">
+        <v>42030001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>48029041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>65538</v>
+      </c>
+      <c r="M42">
+        <v>-85</v>
+      </c>
+      <c r="R42">
+        <v>14</v>
+      </c>
+      <c r="S42">
+        <v>100</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>6000</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1000</v>
+      </c>
+      <c r="AF42">
+        <v>1000</v>
+      </c>
+      <c r="AI42">
+        <v>700</v>
+      </c>
+      <c r="AJ42">
+        <v>900</v>
+      </c>
+      <c r="AO42">
+        <v>10000</v>
+      </c>
+      <c r="BB42">
+        <v>-300</v>
+      </c>
+      <c r="BC42">
+        <v>1</v>
+      </c>
+      <c r="BE42">
+        <v>300</v>
+      </c>
+      <c r="BF42">
+        <v>1</v>
+      </c>
+      <c r="CE42">
+        <v>1</v>
+      </c>
+      <c r="CI42">
+        <v>91045069</v>
+      </c>
+      <c r="CV42">
+        <v>91045070</v>
+      </c>
+      <c r="CW42">
+        <v>90003101</v>
+      </c>
+      <c r="EC42">
+        <v>1</v>
+      </c>
+      <c r="ED42">
+        <v>41062034</v>
+      </c>
+      <c r="EE42">
+        <v>41000812</v>
+      </c>
+      <c r="EF42">
+        <v>41000813</v>
+      </c>
+      <c r="EG42">
+        <v>41000814</v>
+      </c>
+      <c r="EH42">
+        <v>41000815</v>
+      </c>
+      <c r="EI42">
+        <v>41000817</v>
+      </c>
+      <c r="EJ42">
+        <v>42021001</v>
+      </c>
+      <c r="EK42">
+        <v>42021002</v>
+      </c>
+      <c r="EL42">
+        <v>41023101</v>
+      </c>
+      <c r="EM42">
+        <v>41023102</v>
+      </c>
+      <c r="EN42">
+        <v>41023106</v>
+      </c>
+      <c r="EO42">
+        <v>41023113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>48029044</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>65538</v>
+      </c>
+      <c r="M43">
+        <v>-85</v>
+      </c>
+      <c r="R43">
+        <v>14</v>
+      </c>
+      <c r="S43">
+        <v>100</v>
+      </c>
+      <c r="X43">
+        <v>4</v>
+      </c>
+      <c r="AA43">
+        <v>6000</v>
+      </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1000</v>
+      </c>
+      <c r="AF43">
+        <v>1000</v>
+      </c>
+      <c r="AI43">
+        <v>700</v>
+      </c>
+      <c r="AJ43">
+        <v>900</v>
+      </c>
+      <c r="AO43">
+        <v>10000</v>
+      </c>
+      <c r="BB43">
+        <v>-300</v>
+      </c>
+      <c r="BC43">
+        <v>1</v>
+      </c>
+      <c r="BE43">
+        <v>300</v>
+      </c>
+      <c r="BF43">
+        <v>1</v>
+      </c>
+      <c r="CE43">
+        <v>1</v>
+      </c>
+      <c r="CI43">
+        <v>91045069</v>
+      </c>
+      <c r="CV43">
+        <v>91045070</v>
+      </c>
+      <c r="CW43">
+        <v>90003101</v>
+      </c>
+      <c r="EC43">
+        <v>1</v>
+      </c>
+      <c r="ED43">
+        <v>41062034</v>
+      </c>
+      <c r="EE43">
+        <v>41000812</v>
+      </c>
+      <c r="EF43">
+        <v>41000813</v>
+      </c>
+      <c r="EG43">
+        <v>41000814</v>
+      </c>
+      <c r="EH43">
+        <v>41000815</v>
+      </c>
+      <c r="EI43">
+        <v>41000817</v>
+      </c>
+      <c r="EJ43">
+        <v>42021001</v>
+      </c>
+      <c r="EK43">
+        <v>42021002</v>
+      </c>
+      <c r="EL43">
+        <v>41023103</v>
+      </c>
+      <c r="EM43">
+        <v>41023104</v>
+      </c>
+      <c r="EN43">
+        <v>41023106</v>
+      </c>
+      <c r="EO43">
+        <v>41023116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>48029016</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>65538</v>
+      </c>
+      <c r="M44">
+        <v>-85</v>
+      </c>
+      <c r="R44">
+        <v>14</v>
+      </c>
+      <c r="S44">
+        <v>100</v>
+      </c>
+      <c r="X44">
+        <v>4</v>
+      </c>
+      <c r="AA44">
+        <v>6000</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>1000</v>
+      </c>
+      <c r="AF44">
+        <v>1000</v>
+      </c>
+      <c r="AI44">
+        <v>700</v>
+      </c>
+      <c r="AJ44">
+        <v>900</v>
+      </c>
+      <c r="AO44">
+        <v>10000</v>
+      </c>
+      <c r="BB44">
+        <v>200</v>
+      </c>
+      <c r="BC44">
+        <v>1</v>
+      </c>
+      <c r="CE44">
+        <v>1</v>
+      </c>
+      <c r="CI44">
+        <v>91045065</v>
+      </c>
+      <c r="CV44">
+        <v>91045066</v>
+      </c>
+      <c r="CW44">
+        <v>90003101</v>
+      </c>
+      <c r="EC44">
+        <v>1</v>
+      </c>
+      <c r="ED44">
+        <v>41062034</v>
+      </c>
+      <c r="EE44">
+        <v>41000812</v>
+      </c>
+      <c r="EF44">
+        <v>41000813</v>
+      </c>
+      <c r="EG44">
+        <v>41000814</v>
+      </c>
+      <c r="EH44">
+        <v>41000815</v>
+      </c>
+      <c r="EI44">
+        <v>41000817</v>
+      </c>
+      <c r="EJ44">
+        <v>42020001</v>
+      </c>
+      <c r="EK44">
+        <v>41023003</v>
+      </c>
+      <c r="EL44">
+        <v>41023006</v>
+      </c>
+      <c r="EM44">
+        <v>41023007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>30231075</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <v>2500</v>
+      </c>
+      <c r="AC45">
+        <v>2</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>800</v>
+      </c>
+      <c r="AF45">
+        <v>800</v>
+      </c>
+      <c r="AI45">
+        <v>600</v>
+      </c>
+      <c r="AJ45">
+        <v>900</v>
+      </c>
+      <c r="AO45">
+        <v>251838</v>
+      </c>
+      <c r="BA45">
+        <v>-400</v>
+      </c>
+      <c r="BC45">
+        <v>1</v>
+      </c>
+      <c r="BD45">
+        <v>400</v>
+      </c>
+      <c r="BF45">
+        <v>1</v>
+      </c>
+      <c r="CE45">
+        <v>1</v>
+      </c>
+      <c r="CV45">
+        <v>91000201</v>
+      </c>
+      <c r="CW45">
+        <v>90003101</v>
+      </c>
+      <c r="EB45">
+        <v>1</v>
+      </c>
+      <c r="EC45">
+        <v>1</v>
+      </c>
+      <c r="ED45">
+        <v>41022205</v>
+      </c>
+      <c r="EE45">
+        <v>41022206</v>
+      </c>
+      <c r="EF45">
+        <v>41022213</v>
+      </c>
+      <c r="EG45">
+        <v>41022214</v>
+      </c>
+      <c r="EH45">
+        <v>41022216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>30231078</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="AA46">
+        <v>2500</v>
+      </c>
+      <c r="AC46">
+        <v>2</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>800</v>
+      </c>
+      <c r="AF46">
+        <v>800</v>
+      </c>
+      <c r="AI46">
+        <v>600</v>
+      </c>
+      <c r="AJ46">
+        <v>900</v>
+      </c>
+      <c r="AO46">
+        <v>251838</v>
+      </c>
+      <c r="BA46">
+        <v>-400</v>
+      </c>
+      <c r="BC46">
+        <v>1</v>
+      </c>
+      <c r="BD46">
+        <v>400</v>
+      </c>
+      <c r="BF46">
+        <v>1</v>
+      </c>
+      <c r="CE46">
+        <v>1</v>
+      </c>
+      <c r="CV46">
+        <v>91000201</v>
+      </c>
+      <c r="CW46">
+        <v>90003101</v>
+      </c>
+      <c r="EB46">
+        <v>1</v>
+      </c>
+      <c r="EC46">
+        <v>1</v>
+      </c>
+      <c r="ED46">
+        <v>41022211</v>
+      </c>
+      <c r="EE46">
+        <v>41022212</v>
+      </c>
+      <c r="EF46">
+        <v>41022213</v>
+      </c>
+      <c r="EG46">
+        <v>41022215</v>
+      </c>
+      <c r="EH46">
+        <v>41022216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>30231064</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="AA47">
+        <v>6000</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1000</v>
+      </c>
+      <c r="AF47">
+        <v>1000</v>
+      </c>
+      <c r="AI47">
+        <v>1000</v>
+      </c>
+      <c r="AJ47">
+        <v>1000</v>
+      </c>
+      <c r="AO47">
+        <v>20000</v>
+      </c>
+      <c r="AR47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <v>-400</v>
+      </c>
+      <c r="BC47">
+        <v>1</v>
+      </c>
+      <c r="BE47">
+        <v>-400</v>
+      </c>
+      <c r="BF47">
+        <v>1</v>
+      </c>
+      <c r="BH47">
+        <v>-400</v>
+      </c>
+      <c r="BI47">
+        <v>1</v>
+      </c>
+      <c r="CV47">
+        <v>91000201</v>
+      </c>
+      <c r="CW47">
+        <v>90003101</v>
+      </c>
+      <c r="EB47">
+        <v>1</v>
+      </c>
+      <c r="EC47">
+        <v>1</v>
+      </c>
+      <c r="ED47">
+        <v>41021813</v>
+      </c>
+      <c r="EE47">
+        <v>41021824</v>
+      </c>
+      <c r="EF47">
+        <v>41021825</v>
+      </c>
+      <c r="EG47">
+        <v>41021838</v>
+      </c>
+      <c r="EH47">
+        <v>41021840</v>
+      </c>
+      <c r="EI47">
+        <v>41000907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:146" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>48029017</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>65538</v>
+      </c>
+      <c r="M48">
+        <v>-85</v>
+      </c>
+      <c r="R48">
+        <v>14</v>
+      </c>
+      <c r="S48">
+        <v>100</v>
+      </c>
+      <c r="X48">
+        <v>4</v>
+      </c>
+      <c r="AA48">
+        <v>6000</v>
+      </c>
+      <c r="AC48">
+        <v>2</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>1000</v>
+      </c>
+      <c r="AF48">
+        <v>1000</v>
+      </c>
+      <c r="AI48">
+        <v>700</v>
+      </c>
+      <c r="AJ48">
+        <v>900</v>
+      </c>
+      <c r="AO48">
+        <v>10000</v>
+      </c>
+      <c r="BB48">
+        <v>200</v>
+      </c>
+      <c r="BC48">
+        <v>1</v>
+      </c>
+      <c r="CE48">
+        <v>1</v>
+      </c>
+      <c r="CI48">
+        <v>91045065</v>
+      </c>
+      <c r="CV48">
+        <v>91045066</v>
+      </c>
+      <c r="CW48">
+        <v>90003101</v>
+      </c>
+      <c r="EC48">
+        <v>1</v>
+      </c>
+      <c r="ED48">
+        <v>41062034</v>
+      </c>
+      <c r="EE48">
+        <v>41000812</v>
+      </c>
+      <c r="EF48">
+        <v>41000813</v>
+      </c>
+      <c r="EG48">
+        <v>41000814</v>
+      </c>
+      <c r="EH48">
+        <v>41000815</v>
+      </c>
+      <c r="EI48">
+        <v>41000817</v>
+      </c>
+      <c r="EJ48">
+        <v>42020001</v>
+      </c>
+      <c r="EK48">
+        <v>41023004</v>
+      </c>
+      <c r="EL48">
+        <v>41023006</v>
+      </c>
+      <c r="EM48">
+        <v>41023007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>30231065</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="AA49">
+        <v>6000</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1000</v>
+      </c>
+      <c r="AF49">
+        <v>1000</v>
+      </c>
+      <c r="AI49">
+        <v>1000</v>
+      </c>
+      <c r="AJ49">
+        <v>1000</v>
+      </c>
+      <c r="AO49">
+        <v>20000</v>
+      </c>
+      <c r="AR49">
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <v>-400</v>
+      </c>
+      <c r="BC49">
+        <v>1</v>
+      </c>
+      <c r="BE49">
+        <v>-400</v>
+      </c>
+      <c r="BF49">
+        <v>1</v>
+      </c>
+      <c r="BH49">
+        <v>-400</v>
+      </c>
+      <c r="BI49">
+        <v>1</v>
+      </c>
+      <c r="CV49">
+        <v>91000201</v>
+      </c>
+      <c r="CW49">
+        <v>90003101</v>
+      </c>
+      <c r="EB49">
+        <v>1</v>
+      </c>
+      <c r="EC49">
+        <v>1</v>
+      </c>
+      <c r="ED49">
+        <v>41021814</v>
+      </c>
+      <c r="EE49">
+        <v>41021826</v>
+      </c>
+      <c r="EF49">
+        <v>41021827</v>
+      </c>
+      <c r="EG49">
+        <v>41021838</v>
+      </c>
+      <c r="EH49">
+        <v>41021840</v>
+      </c>
+      <c r="EI49">
+        <v>41000907</v>
+      </c>
+    </row>
+    <row r="50" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48029018</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>65538</v>
+      </c>
+      <c r="M50">
+        <v>-85</v>
+      </c>
+      <c r="R50">
+        <v>14</v>
+      </c>
+      <c r="S50">
+        <v>100</v>
+      </c>
+      <c r="X50">
+        <v>4</v>
+      </c>
+      <c r="AA50">
+        <v>6000</v>
+      </c>
+      <c r="AC50">
+        <v>2</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>1000</v>
+      </c>
+      <c r="AF50">
+        <v>1000</v>
+      </c>
+      <c r="AI50">
+        <v>700</v>
+      </c>
+      <c r="AJ50">
+        <v>900</v>
+      </c>
+      <c r="AO50">
+        <v>10000</v>
+      </c>
+      <c r="BB50">
+        <v>200</v>
+      </c>
+      <c r="BC50">
+        <v>1</v>
+      </c>
+      <c r="CE50">
+        <v>1</v>
+      </c>
+      <c r="CI50">
+        <v>91045065</v>
+      </c>
+      <c r="CV50">
+        <v>91045066</v>
+      </c>
+      <c r="CW50">
+        <v>90003101</v>
+      </c>
+      <c r="EC50">
+        <v>1</v>
+      </c>
+      <c r="ED50">
+        <v>41062034</v>
+      </c>
+      <c r="EE50">
+        <v>41000812</v>
+      </c>
+      <c r="EF50">
+        <v>41000813</v>
+      </c>
+      <c r="EG50">
+        <v>41000814</v>
+      </c>
+      <c r="EH50">
+        <v>41000815</v>
+      </c>
+      <c r="EI50">
+        <v>41000817</v>
+      </c>
+      <c r="EJ50">
+        <v>42020001</v>
+      </c>
+      <c r="EK50">
+        <v>41023005</v>
+      </c>
+      <c r="EL50">
+        <v>41023006</v>
+      </c>
+      <c r="EM50">
+        <v>41023007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>30231066</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="AA51">
+        <v>6000</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>1000</v>
+      </c>
+      <c r="AF51">
+        <v>1000</v>
+      </c>
+      <c r="AI51">
+        <v>1000</v>
+      </c>
+      <c r="AJ51">
+        <v>1000</v>
+      </c>
+      <c r="AO51">
+        <v>20000</v>
+      </c>
+      <c r="AR51">
+        <v>1</v>
+      </c>
+      <c r="BB51">
+        <v>-400</v>
+      </c>
+      <c r="BC51">
+        <v>1</v>
+      </c>
+      <c r="BE51">
+        <v>-400</v>
+      </c>
+      <c r="BF51">
+        <v>1</v>
+      </c>
+      <c r="BH51">
+        <v>-400</v>
+      </c>
+      <c r="BI51">
+        <v>1</v>
+      </c>
+      <c r="CV51">
+        <v>91000201</v>
+      </c>
+      <c r="CW51">
+        <v>90003101</v>
+      </c>
+      <c r="EB51">
+        <v>1</v>
+      </c>
+      <c r="EC51">
+        <v>1</v>
+      </c>
+      <c r="ED51">
+        <v>41021815</v>
+      </c>
+      <c r="EE51">
+        <v>41021828</v>
+      </c>
+      <c r="EF51">
+        <v>41021829</v>
+      </c>
+      <c r="EG51">
+        <v>41021839</v>
+      </c>
+      <c r="EH51">
+        <v>41021841</v>
+      </c>
+      <c r="EI51">
+        <v>41000907</v>
+      </c>
+    </row>
+    <row r="52" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>30231067</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>6000</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>1000</v>
+      </c>
+      <c r="AF52">
+        <v>1000</v>
+      </c>
+      <c r="AI52">
+        <v>1000</v>
+      </c>
+      <c r="AJ52">
+        <v>1000</v>
+      </c>
+      <c r="AO52">
+        <v>20000</v>
+      </c>
+      <c r="AR52">
+        <v>1</v>
+      </c>
+      <c r="BB52">
+        <v>-400</v>
+      </c>
+      <c r="BC52">
+        <v>1</v>
+      </c>
+      <c r="BE52">
+        <v>-400</v>
+      </c>
+      <c r="BF52">
+        <v>1</v>
+      </c>
+      <c r="BH52">
+        <v>-400</v>
+      </c>
+      <c r="BI52">
+        <v>1</v>
+      </c>
+      <c r="CV52">
+        <v>91000201</v>
+      </c>
+      <c r="CW52">
+        <v>90003101</v>
+      </c>
+      <c r="EB52">
+        <v>1</v>
+      </c>
+      <c r="EC52">
+        <v>1</v>
+      </c>
+      <c r="ED52">
+        <v>41021816</v>
+      </c>
+      <c r="EE52">
+        <v>41021830</v>
+      </c>
+      <c r="EF52">
+        <v>41021831</v>
+      </c>
+      <c r="EG52">
+        <v>41021839</v>
+      </c>
+      <c r="EH52">
+        <v>41021841</v>
+      </c>
+      <c r="EI52">
+        <v>41000907</v>
+      </c>
+    </row>
+    <row r="53" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>48029124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>851970</v>
+      </c>
+      <c r="M53">
+        <v>-85</v>
+      </c>
+      <c r="R53">
+        <v>14</v>
+      </c>
+      <c r="S53">
+        <v>3000600</v>
+      </c>
+      <c r="AA53">
+        <v>10000</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1400</v>
+      </c>
+      <c r="AF53">
+        <v>1400</v>
+      </c>
+      <c r="AH53">
+        <v>250</v>
+      </c>
+      <c r="AI53">
+        <v>750</v>
+      </c>
+      <c r="AJ53">
+        <v>350</v>
+      </c>
+      <c r="AO53">
+        <v>10000</v>
+      </c>
+      <c r="CI53">
+        <v>91045091</v>
+      </c>
+      <c r="CV53">
+        <v>91045092</v>
+      </c>
+      <c r="CW53">
+        <v>90003201</v>
+      </c>
+      <c r="EC53">
+        <v>1</v>
+      </c>
+      <c r="ED53">
+        <v>41062034</v>
+      </c>
+      <c r="EE53">
+        <v>41000812</v>
+      </c>
+      <c r="EF53">
+        <v>41000817</v>
+      </c>
+      <c r="EG53">
+        <v>41000823</v>
+      </c>
+      <c r="EH53">
+        <v>41024201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>30231068</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="AA54">
+        <v>6000</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>1000</v>
+      </c>
+      <c r="AF54">
+        <v>1000</v>
+      </c>
+      <c r="AI54">
+        <v>1000</v>
+      </c>
+      <c r="AJ54">
+        <v>1000</v>
+      </c>
+      <c r="AO54">
+        <v>20000</v>
+      </c>
+      <c r="AR54">
+        <v>1</v>
+      </c>
+      <c r="BB54">
+        <v>-400</v>
+      </c>
+      <c r="BC54">
+        <v>1</v>
+      </c>
+      <c r="BE54">
+        <v>-400</v>
+      </c>
+      <c r="BF54">
+        <v>1</v>
+      </c>
+      <c r="BH54">
+        <v>-400</v>
+      </c>
+      <c r="BI54">
+        <v>1</v>
+      </c>
+      <c r="CV54">
+        <v>91000201</v>
+      </c>
+      <c r="CW54">
+        <v>90003101</v>
+      </c>
+      <c r="EB54">
+        <v>1</v>
+      </c>
+      <c r="EC54">
+        <v>1</v>
+      </c>
+      <c r="ED54">
+        <v>41021817</v>
+      </c>
+      <c r="EE54">
+        <v>41021832</v>
+      </c>
+      <c r="EF54">
+        <v>41021833</v>
+      </c>
+      <c r="EG54">
+        <v>41021839</v>
+      </c>
+      <c r="EH54">
+        <v>41021841</v>
+      </c>
+      <c r="EI54">
+        <v>41000907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>30231069</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="AA55">
+        <v>6000</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1000</v>
+      </c>
+      <c r="AF55">
+        <v>1000</v>
+      </c>
+      <c r="AI55">
+        <v>1000</v>
+      </c>
+      <c r="AJ55">
+        <v>1000</v>
+      </c>
+      <c r="AO55">
+        <v>20000</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
+      <c r="BB55">
+        <v>-400</v>
+      </c>
+      <c r="BC55">
+        <v>1</v>
+      </c>
+      <c r="BE55">
+        <v>-400</v>
+      </c>
+      <c r="BF55">
+        <v>1</v>
+      </c>
+      <c r="BH55">
+        <v>-400</v>
+      </c>
+      <c r="BI55">
+        <v>1</v>
+      </c>
+      <c r="CV55">
+        <v>91000201</v>
+      </c>
+      <c r="CW55">
+        <v>90003101</v>
+      </c>
+      <c r="EB55">
+        <v>1</v>
+      </c>
+      <c r="EC55">
+        <v>1</v>
+      </c>
+      <c r="ED55">
+        <v>41021818</v>
+      </c>
+      <c r="EE55">
+        <v>41021834</v>
+      </c>
+      <c r="EF55">
+        <v>41021835</v>
+      </c>
+      <c r="EG55">
+        <v>41021839</v>
+      </c>
+      <c r="EH55">
+        <v>41021841</v>
+      </c>
+      <c r="EI55">
+        <v>41000907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>30231070</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="AA56">
+        <v>6000</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1000</v>
+      </c>
+      <c r="AF56">
+        <v>1000</v>
+      </c>
+      <c r="AI56">
+        <v>1000</v>
+      </c>
+      <c r="AJ56">
+        <v>1000</v>
+      </c>
+      <c r="AO56">
+        <v>20000</v>
+      </c>
+      <c r="AR56">
+        <v>1</v>
+      </c>
+      <c r="BB56">
+        <v>-400</v>
+      </c>
+      <c r="BC56">
+        <v>1</v>
+      </c>
+      <c r="BE56">
+        <v>-400</v>
+      </c>
+      <c r="BF56">
+        <v>1</v>
+      </c>
+      <c r="BH56">
+        <v>-400</v>
+      </c>
+      <c r="BI56">
+        <v>1</v>
+      </c>
+      <c r="CV56">
+        <v>91000201</v>
+      </c>
+      <c r="CW56">
+        <v>90003101</v>
+      </c>
+      <c r="EB56">
+        <v>1</v>
+      </c>
+      <c r="EC56">
+        <v>1</v>
+      </c>
+      <c r="ED56">
+        <v>41021819</v>
+      </c>
+      <c r="EE56">
+        <v>41021836</v>
+      </c>
+      <c r="EF56">
+        <v>41021837</v>
+      </c>
+      <c r="EG56">
+        <v>41021839</v>
+      </c>
+      <c r="EH56">
+        <v>41021841</v>
+      </c>
+      <c r="EI56">
+        <v>41000907</v>
       </c>
     </row>
   </sheetData>
